--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value121.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value121.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.015530536052148</v>
+        <v>0.6233027577400208</v>
       </c>
       <c r="B1">
-        <v>1.787567248166874</v>
+        <v>3.548562526702881</v>
       </c>
       <c r="C1">
-        <v>4.171506937654669</v>
+        <v>2.697499990463257</v>
       </c>
       <c r="D1">
-        <v>2.450619679596575</v>
+        <v>0.9549130201339722</v>
       </c>
       <c r="E1">
-        <v>1.012736330571055</v>
+        <v>0.9180357456207275</v>
       </c>
     </row>
   </sheetData>
